--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.e.doronin\Documents\GitHub\grad_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spell\Documents\GitHub\grad_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882A92A-278F-4165-8AC0-91D31A53EE32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BFC2F3-5D26-4372-AF1E-83F1EDE01A7E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="6" xr2:uid="{E73A52AA-78DA-4F61-BFA3-CBBF91E1DE40}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
   <si>
     <t>tj = 1</t>
   </si>
@@ -89,11 +89,26 @@
   <si>
     <t>Column6</t>
   </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Погрешность 1</t>
+  </si>
+  <si>
+    <t>Погрешность 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,14 +139,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="49">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -704,6 +762,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-1361-405E-B7CE-94E019A13B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>'tj = 1'!$A$2:$A$19</c:f>
@@ -774,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7.2558695999999996</c:v>
+                  <c:v>1.9781367000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9756429000000004</c:v>
+                  <c:v>9.7308819999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9998245000000008</c:v>
+                  <c:v>9.9978985999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9999988999999996</c:v>
+                  <c:v>9.9999856999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>9.9999999000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -1579,25 +1662,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-3.0361977000000002</c:v>
+                  <c:v>-5.1983579000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9000512000000001</c:v>
+                  <c:v>-0.90867719999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3501743000000008</c:v>
+                  <c:v>6.6317354000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9775705000000006</c:v>
+                  <c:v>9.8750990999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9994081000000001</c:v>
+                  <c:v>9.9962446000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999873000000008</c:v>
+                  <c:v>9.9999113000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999997999999994</c:v>
+                  <c:v>9.9999982000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -2380,34 +2463,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-5.0179532</c:v>
+                  <c:v>-6.6098150999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.1336786999999999</c:v>
+                  <c:v>-3.5322790999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3299323000000001</c:v>
+                  <c:v>-0.67923129999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7665006999999999</c:v>
+                  <c:v>5.5467711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9125008999999995</c:v>
+                  <c:v>9.6611420999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9950990999999991</c:v>
+                  <c:v>9.9787347999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9997731000000005</c:v>
+                  <c:v>9.9989225000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9999909999999996</c:v>
+                  <c:v>9.9999541000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9999997</c:v>
+                  <c:v>9.9999982999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>9.9999999000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
@@ -2747,16 +2830,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -3241,46 +3321,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-6.6904028999999996</c:v>
+                  <c:v>-7.7815219999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.5736793000000002</c:v>
+                  <c:v>-5.6196390999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5635881</c:v>
+                  <c:v>-3.5549759000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.64990380000000003</c:v>
+                  <c:v>-1.5969546999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6188864000000001</c:v>
+                  <c:v>1.4701963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3259167000000005</c:v>
+                  <c:v>6.5445263999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6839224000000002</c:v>
+                  <c:v>9.2507221000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9511745999999999</c:v>
+                  <c:v>9.8730156999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9936117000000007</c:v>
+                  <c:v>9.9819869000000008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9992812000000004</c:v>
+                  <c:v>9.9978183000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999293999999992</c:v>
+                  <c:v>9.9997711000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9999938999999998</c:v>
+                  <c:v>9.9999789000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9999994999999995</c:v>
+                  <c:v>9.9999982999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>9.9999999000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10</c:v>
@@ -3612,16 +3692,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -3942,55 +4019,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-8.4238599999999995</c:v>
+                  <c:v>-8.4372399999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.8501899999999996</c:v>
+                  <c:v>-6.8770499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2814899999999998</c:v>
+                  <c:v>-5.3220200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.72031</c:v>
+                  <c:v>-3.7747799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.16926</c:v>
+                  <c:v>-2.2379899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.63107999999999997</c:v>
+                  <c:v>-0.71435000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.82999</c:v>
+                  <c:v>1.66543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.76024</c:v>
+                  <c:v>2.56535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.69855</c:v>
+                  <c:v>4.4925600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.27034</c:v>
+                  <c:v>6.0676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4805400000000004</c:v>
+                  <c:v>7.2965099999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3646700000000003</c:v>
+                  <c:v>8.21035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9790200000000002</c:v>
+                  <c:v>8.8589199999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3869600000000002</c:v>
+                  <c:v>9.2999299999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6480999999999995</c:v>
+                  <c:v>9.5896699999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.8124500000000001</c:v>
+                  <c:v>9.7772699999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9194300000000002</c:v>
+                  <c:v>9.90306</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -4106,55 +4183,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-7.0588775000000004</c:v>
+                  <c:v>-8.0399022000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0951171000000004</c:v>
+                  <c:v>-6.0780759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1264755000000002</c:v>
+                  <c:v>-4.1125505999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1504544000000001</c:v>
+                  <c:v>-2.1409810999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4201109000000001</c:v>
+                  <c:v>-0.1607036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9307023000000001</c:v>
+                  <c:v>2.1767365000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7974119000000002</c:v>
+                  <c:v>5.5119103999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5834645999999992</c:v>
+                  <c:v>7.8419767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4720578</c:v>
+                  <c:v>9.1300194000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8321629999999995</c:v>
+                  <c:v>9.7030785000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9537949999999995</c:v>
+                  <c:v>9.9129526000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9888183999999995</c:v>
+                  <c:v>9.9777342999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9975897000000007</c:v>
+                  <c:v>9.9949586999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9995320999999997</c:v>
+                  <c:v>9.9989773999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9999175000000005</c:v>
+                  <c:v>9.9998123000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9999866999999991</c:v>
+                  <c:v>9.9999686000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9999982999999997</c:v>
+                  <c:v>9.9999953000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -4467,16 +4544,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU">
@@ -4963,55 +5037,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-7.0161901000000002</c:v>
+                  <c:v>-8.0110471000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.024985</c:v>
+                  <c:v>-6.0208826000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.0309077000000002</c:v>
+                  <c:v>-4.0283667000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0330546</c:v>
+                  <c:v>-2.0325011000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1967635999999999</c:v>
+                  <c:v>-3.2492199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9881641999999999</c:v>
+                  <c:v>1.6329596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3954655000000002</c:v>
+                  <c:v>4.2522072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2496518999999999</c:v>
+                  <c:v>6.3978266000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5116788000000003</c:v>
+                  <c:v>7.9513305000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2716106000000007</c:v>
+                  <c:v>8.9456176000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6775544999999994</c:v>
+                  <c:v>9.5092891999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8706767000000006</c:v>
+                  <c:v>9.7932898999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9528815999999996</c:v>
+                  <c:v>9.9210121000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9843519000000001</c:v>
+                  <c:v>9.9725362999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9952480000000001</c:v>
+                  <c:v>9.9912808000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9986902000000004</c:v>
+                  <c:v>9.9974691999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9997395999999998</c:v>
+                  <c:v>9.9993581999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -5780,55 +5854,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-6.9983411999999996</c:v>
+                  <c:v>-7.9989740999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9966112000000003</c:v>
+                  <c:v>-5.9975676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9940053</c:v>
+                  <c:v>-3.9954345999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.99029089999999997</c:v>
+                  <c:v>-1.9922972000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0146533</c:v>
+                  <c:v>1.2024999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4715685000000001</c:v>
+                  <c:v>1.3154604999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5912598999999998</c:v>
+                  <c:v>3.5696091999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3529739999999997</c:v>
+                  <c:v>5.5222430999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6995765</c:v>
+                  <c:v>7.0787605999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6457484000000004</c:v>
+                  <c:v>8.2194743999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2570070999999992</c:v>
+                  <c:v>8.9879688000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6203740999999994</c:v>
+                  <c:v>9.4641506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8193819999999992</c:v>
+                  <c:v>9.7358046999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9199731</c:v>
+                  <c:v>9.8786968000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9670530999999993</c:v>
+                  <c:v>9.9481538999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9877239000000007</c:v>
+                  <c:v>9.9795385999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9969497999999994</c:v>
+                  <c:v>9.9931494999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -10109,16 +10183,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10150,16 +10224,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10191,16 +10265,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10232,16 +10306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552448</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10273,16 +10347,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10314,16 +10388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10355,16 +10429,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10394,14 +10468,16 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{7E31E22D-38C8-4A8F-A4C6-A33DC1FEE2B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10409,14 +10485,16 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{52B0EFDB-C7DB-41A0-839C-A040EA0803F2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10424,14 +10502,16 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="3" xr16:uid="{380A2219-D92E-4402-B4E1-4ED909EEBB68}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10439,14 +10519,16 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="4" xr16:uid="{36C2C7F7-9F24-468B-B686-49D7E3B7984B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10454,14 +10536,16 @@
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="5" xr16:uid="{A0E9B6E0-D2A3-43DD-803F-C6DC4710F6C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10469,14 +10553,16 @@
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="6" xr16:uid="{F2947446-05BC-4971-BF62-3F95AFDF5120}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -10484,119 +10570,163 @@
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="7" xr16:uid="{ADCE444C-266F-4F30-B112-BC93E2DE267D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="2">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13F04BBB-1E8C-4B1D-B521-BEA092F45BBF}" name="data1" displayName="data1" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{E186E706-0C16-4A8E-A539-554196EC6A94}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{17DCDEF7-C151-4009-BC06-F6E9BE6B6825}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{85A1E2AE-36C1-4076-8C92-6235418260BA}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13F04BBB-1E8C-4B1D-B521-BEA092F45BBF}" name="data1" displayName="data1" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{E186E706-0C16-4A8E-A539-554196EC6A94}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{17DCDEF7-C151-4009-BC06-F6E9BE6B6825}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{85A1E2AE-36C1-4076-8C92-6235418260BA}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="47"/>
     <tableColumn id="3" xr3:uid="{C204CF19-578F-447A-B372-C47F1E8CB250}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{1DCD895E-3427-49E6-8811-1CAD6A5F7DDE}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{9BCB985E-D450-4F72-988D-202D89EA5841}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{292D86C2-3BEE-4850-A9F7-D7A97E033A63}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1DCD895E-3427-49E6-8811-1CAD6A5F7DDE}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{9BCB985E-D450-4F72-988D-202D89EA5841}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{292D86C2-3BEE-4850-A9F7-D7A97E033A63}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{DB4366E1-3B9D-426A-85CC-633442F3404C}" uniqueName="7" name="Погрешность 1" queryTableFieldId="7" dataDxfId="18">
+      <calculatedColumnFormula>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7CED67C6-8413-49AF-AD56-690F4B8325A8}" uniqueName="8" name="Погрешность 2" queryTableFieldId="8" dataDxfId="7">
+      <calculatedColumnFormula>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24CB935F-1951-43A6-973D-1DD695D441F2}" name="data2" displayName="data2" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{25DEA3C3-7616-426B-9CB2-C851F18A2366}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7FA8A4B6-83E3-4923-AE4D-9547E9FF0F42}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{F2C34156-36DB-4B5A-9E95-A9BFD9408DB9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24CB935F-1951-43A6-973D-1DD695D441F2}" name="data2" displayName="data2" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{25DEA3C3-7616-426B-9CB2-C851F18A2366}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7FA8A4B6-83E3-4923-AE4D-9547E9FF0F42}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F2C34156-36DB-4B5A-9E95-A9BFD9408DB9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="42"/>
     <tableColumn id="3" xr3:uid="{C179ED06-9AB1-427A-BB3A-182486DCC00B}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{EF97205E-2DE9-4C3D-8BD0-E9838CBA6BC1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{D6D4B084-E21B-4B73-8DFB-240F8E8141F1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{36F8D941-DA27-4A06-819F-C747E471997C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EF97205E-2DE9-4C3D-8BD0-E9838CBA6BC1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{D6D4B084-E21B-4B73-8DFB-240F8E8141F1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{36F8D941-DA27-4A06-819F-C747E471997C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{E7B73A85-17A1-46C4-980B-DAD5C95684C3}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="17">
+      <calculatedColumnFormula>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7F787F39-C5E6-461E-861A-4E31C7320CAE}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="16">
+      <calculatedColumnFormula>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{57BB283D-70B3-4ECB-B0F9-9BC90A5665F5}" name="data3" displayName="data3" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{97B8F262-6463-4CE1-8406-C9E888CAA64B}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{350EDAD0-C6CF-4857-A71E-6769F62AF64B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1A137A33-9BFB-4F6F-8365-0AF570B05D07}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{57BB283D-70B3-4ECB-B0F9-9BC90A5665F5}" name="data3" displayName="data3" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{97B8F262-6463-4CE1-8406-C9E888CAA64B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{350EDAD0-C6CF-4857-A71E-6769F62AF64B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1A137A33-9BFB-4F6F-8365-0AF570B05D07}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{45DB879B-D8CE-4685-AD87-9DA21534302F}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{011CAA0D-97A6-403B-9CC6-F3557CBA5C2F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{3B2C8832-28BF-4F38-ACB7-BC2D13E746C2}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{F90B0F58-6D50-40C9-A28B-E1A1614B4D4D}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{011CAA0D-97A6-403B-9CC6-F3557CBA5C2F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3B2C8832-28BF-4F38-ACB7-BC2D13E746C2}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F90B0F58-6D50-40C9-A28B-E1A1614B4D4D}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6497B613-225C-4CD9-835E-9E7C9E8A2A82}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="1">
+      <calculatedColumnFormula>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0B2CE2B3-52AD-4444-90A8-E618E2D582C3}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="0">
+      <calculatedColumnFormula>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F184BD80-DCBA-4256-9AF1-D831CD7053F1}" name="data4" displayName="data4" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{85781726-5689-4E55-A367-B15EF3EFA64F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{462244A4-D412-4BBA-9329-44DDA8088623}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{6EAE44C2-C471-4519-8BFA-04439DF2F609}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F184BD80-DCBA-4256-9AF1-D831CD7053F1}" name="data4" displayName="data4" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{85781726-5689-4E55-A367-B15EF3EFA64F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{462244A4-D412-4BBA-9329-44DDA8088623}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{6EAE44C2-C471-4519-8BFA-04439DF2F609}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{1CC7FA3A-62F6-4D1B-988A-CE015AB13646}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C327B32C-D02D-4E52-9E7B-08F9E5A97E30}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{192AC12B-4EDC-4BC7-8B3C-AA9C2FC9446B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{D8C37AC3-C891-4C83-8B05-B5FBB08C323C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C327B32C-D02D-4E52-9E7B-08F9E5A97E30}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{192AC12B-4EDC-4BC7-8B3C-AA9C2FC9446B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{D8C37AC3-C891-4C83-8B05-B5FBB08C323C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{838D64CD-1E86-4E08-92DD-05CDE4626A3A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="15">
+      <calculatedColumnFormula>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A70770A5-7ED6-458D-8656-6D32A01982BA}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="14">
+      <calculatedColumnFormula>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31EFB5EE-90C0-400D-A467-2EE9C7A3389B}" name="data5" displayName="data5" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{F16A845B-CBEF-444C-AAEA-2B33BD9848F6}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{310F8498-F8B2-4F91-B953-6CD5EDB84821}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E1061420-8E9E-4B7C-912C-78D7EEB8B7DD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31EFB5EE-90C0-400D-A467-2EE9C7A3389B}" name="data5" displayName="data5" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{F16A845B-CBEF-444C-AAEA-2B33BD9848F6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{310F8498-F8B2-4F91-B953-6CD5EDB84821}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{E1061420-8E9E-4B7C-912C-78D7EEB8B7DD}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{47479B09-C022-4FE0-927C-FAA79A53F2B5}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E13799A6-CEE3-4DBD-B659-A4E14E05B9EB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{C2BD1E1F-CB67-4052-A3AD-31A6B830F65B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{3E0D7877-AC77-4EEA-A884-5263C74FBCC8}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E13799A6-CEE3-4DBD-B659-A4E14E05B9EB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C2BD1E1F-CB67-4052-A3AD-31A6B830F65B}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{3E0D7877-AC77-4EEA-A884-5263C74FBCC8}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{EE778A4D-562B-4BB4-BABD-01C08BA81767}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="13">
+      <calculatedColumnFormula>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5A771E62-658B-41FE-8E1E-A84883F1A32F}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="12">
+      <calculatedColumnFormula>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECBE568F-161B-4B66-BAAA-8B74D221DE87}" name="data6" displayName="data6" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{73A21E21-8CB0-40A4-B087-CEF4A05F583F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{65331EC9-C883-4604-A962-69CE15C47DBC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{45D8E3D8-0EAA-4B97-B9DA-EA17BDFA4FA4}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECBE568F-161B-4B66-BAAA-8B74D221DE87}" name="data6" displayName="data6" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{73A21E21-8CB0-40A4-B087-CEF4A05F583F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{65331EC9-C883-4604-A962-69CE15C47DBC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{45D8E3D8-0EAA-4B97-B9DA-EA17BDFA4FA4}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{8FBEB325-D923-4C8F-82BB-B8F97CFA2264}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{98FB1249-17F8-48F8-9BC9-E75DBDC35A01}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3C009FDF-61E1-4FA3-AB70-46897366E0D8}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{399B78E9-5675-4BD6-94D1-E7746E4CA275}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{98FB1249-17F8-48F8-9BC9-E75DBDC35A01}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{3C009FDF-61E1-4FA3-AB70-46897366E0D8}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{399B78E9-5675-4BD6-94D1-E7746E4CA275}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{A7FA9270-7665-40B8-B5FF-2ADB15455065}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="11">
+      <calculatedColumnFormula>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{88B53103-C00D-4ADA-BC22-B073F4B2F323}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="10">
+      <calculatedColumnFormula>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{751C3306-0F8D-4313-9E62-C1EB16322C48}" name="data7" displayName="data7" ref="A1:F19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{6DE32258-B9D1-4C3E-A9C4-9024C58698ED}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4961710E-5682-45A7-A556-BF9A36EBF956}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CA33E78B-AAF1-42AC-A87B-9AACB5C6111A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{751C3306-0F8D-4313-9E62-C1EB16322C48}" name="data7" displayName="data7" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{6DE32258-B9D1-4C3E-A9C4-9024C58698ED}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4961710E-5682-45A7-A556-BF9A36EBF956}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CA33E78B-AAF1-42AC-A87B-9AACB5C6111A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{A7BD48B8-D3CF-4523-A37A-C3C1D1A39CCB}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{9779489C-DE8B-4B72-B757-E9F0520D8ECF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{301AD836-6F91-4DB6-B0C6-049DF580D382}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{645D6680-3842-425B-A396-07720640A9DE}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9779489C-DE8B-4B72-B757-E9F0520D8ECF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{301AD836-6F91-4DB6-B0C6-049DF580D382}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{645D6680-3842-425B-A396-07720640A9DE}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{283CF903-4ED1-4300-B787-04E9CD8E5251}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="9">
+      <calculatedColumnFormula>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{ECB74C9A-AE58-4B26-B9E8-39C0797D3D9F}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="8">
+      <calculatedColumnFormula>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10899,10 +11029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83BE8D9-1910-46AC-85FF-5444DC279780}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10911,9 +11041,10 @@
     <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10932,8 +11063,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -10946,14 +11083,22 @@
       <c r="D2" s="1">
         <v>6.3905605789999997</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.4841</v>
       </c>
-      <c r="F2" s="1">
-        <v>7.2558695999999996</v>
+      <c r="F2">
+        <v>1.9781367000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>4.906460579</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>4.4124238789999994</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -10966,14 +11111,22 @@
       <c r="D3" s="1">
         <v>9.8357852690000005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>9.7195800000000006</v>
       </c>
-      <c r="F3" s="1">
-        <v>9.9756429000000004</v>
+      <c r="F3">
+        <v>9.7308819999999994</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>0.11620526899999994</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>0.10490326900000113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -10986,14 +11139,22 @@
       <c r="D4" s="1">
         <v>9.9984542090000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>9.9441799999999994</v>
       </c>
-      <c r="F4" s="1">
-        <v>9.9998245000000008</v>
+      <c r="F4">
+        <v>9.9978985999999992</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>5.4274209000000795E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>5.5560900000095614E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -11006,14 +11167,22 @@
       <c r="D5" s="1">
         <v>9.9999971789999993</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>9.9893900000000002</v>
       </c>
-      <c r="F5" s="1">
-        <v>9.9999988999999996</v>
+      <c r="F5">
+        <v>9.9999856999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.0607178999999078E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.147899999942581E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -11026,14 +11195,22 @@
       <c r="D6" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>9.9979800000000001</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
+      <c r="F6">
+        <v>9.9999999000000006</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>2.019998999999828E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>9.8999999309512532E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -11046,14 +11223,22 @@
       <c r="D7" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>9.9996200000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>3.7999899999974218E-4</v>
+      </c>
+      <c r="H7" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -11066,14 +11251,22 @@
       <c r="D8" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>9.9999300000000009</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>10</v>
       </c>
+      <c r="G8" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>6.9998999999043576E-5</v>
+      </c>
+      <c r="H8" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -11086,14 +11279,22 @@
       <c r="D9" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>9.9999900000000004</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>9.9989999995386825E-6</v>
+      </c>
+      <c r="H9" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -11106,14 +11307,22 @@
       <c r="D10" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>10</v>
       </c>
+      <c r="G10" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H10" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -11126,14 +11335,22 @@
       <c r="D11" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>10</v>
       </c>
+      <c r="G11" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H11" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -11146,14 +11363,22 @@
       <c r="D12" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H12" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -11166,14 +11391,22 @@
       <c r="D13" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>10</v>
       </c>
+      <c r="G13" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H13" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -11186,14 +11419,22 @@
       <c r="D14" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>10</v>
       </c>
+      <c r="G14" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H14" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -11206,14 +11447,22 @@
       <c r="D15" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>10</v>
       </c>
+      <c r="G15" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H15" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -11226,14 +11475,22 @@
       <c r="D16" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H16" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -11246,14 +11503,22 @@
       <c r="D17" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>10</v>
       </c>
+      <c r="G17" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H17" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -11266,14 +11531,22 @@
       <c r="D18" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>10</v>
       </c>
+      <c r="G18" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H18" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -11286,11 +11559,19 @@
       <c r="D19" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H19" s="2">
+        <f>ABS(data1[[#This Row],[Column4]]-data1[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
       </c>
     </row>
   </sheetData>
@@ -11304,10 +11585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0967D519-28A8-49AE-8633-12B76A93203F}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11317,7 +11598,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11336,8 +11617,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -11350,14 +11637,22 @@
       <c r="D2" s="1">
         <v>-0.78380854600000005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-0.79898000000000002</v>
       </c>
-      <c r="F2" s="1">
-        <v>-3.0361977000000002</v>
+      <c r="F2">
+        <v>-5.1983579000000004</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.5171453999999973E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>4.414549354</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -11370,14 +11665,22 @@
       <c r="D3" s="1">
         <v>5.4151824489999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>8.3354199999999992</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.9000512000000001</v>
+      <c r="F3">
+        <v>-0.90867719999999996</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>2.9202375509999996</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>6.3238596489999992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -11390,14 +11693,22 @@
       <c r="D4" s="1">
         <v>8.5106713589999998</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>9.3063099999999999</v>
       </c>
-      <c r="F4" s="1">
-        <v>9.3501743000000008</v>
+      <c r="F4">
+        <v>6.6317354000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>0.79563864100000004</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.8789359589999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -11410,14 +11721,22 @@
       <c r="D5" s="1">
         <v>9.6416273290000003</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>9.7614999999999998</v>
       </c>
-      <c r="F5" s="1">
-        <v>9.9775705000000006</v>
+      <c r="F5">
+        <v>9.8750990999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>0.11987267099999954</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>0.23347177099999961</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -11430,14 +11749,22 @@
       <c r="D6" s="1">
         <v>9.9368736290000008</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>9.9237800000000007</v>
       </c>
-      <c r="F6" s="1">
-        <v>9.9994081000000001</v>
+      <c r="F6">
+        <v>9.9962446000000007</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.3093629000000107E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>5.9370970999999884E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -11450,14 +11777,22 @@
       <c r="D7" s="1">
         <v>9.9919257990000006</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>9.9770099999999999</v>
       </c>
-      <c r="F7" s="1">
-        <v>9.9999873000000008</v>
+      <c r="F7">
+        <v>9.9999113000000008</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.4915799000000618E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>7.9855010000002835E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -11470,14 +11805,22 @@
       <c r="D8" s="1">
         <v>9.9992543390000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>9.9933800000000002</v>
       </c>
-      <c r="F8" s="1">
-        <v>9.9999997999999994</v>
+      <c r="F8">
+        <v>9.9999982000000003</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>5.8743390000000062E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>7.4386100000012334E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -11490,14 +11833,22 @@
       <c r="D9" s="1">
         <v>9.9999504790000007</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>9.99817</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.7804790000006676E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>4.9520999999330684E-5</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -11510,14 +11861,22 @@
       <c r="D10" s="1">
         <v>9.999997639</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>9.9995100000000008</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>10</v>
       </c>
+      <c r="G10" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>4.8763899999926252E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>2.3609999999507636E-6</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -11530,14 +11889,22 @@
       <c r="D11" s="1">
         <v>9.9999999190000004</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>9.9998699999999996</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>10</v>
       </c>
+      <c r="G11" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.2991900000081102E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>8.0999999596542693E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -11550,14 +11917,22 @@
       <c r="D12" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>9.9999699999999994</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>2.9999000000557885E-5</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -11570,14 +11945,22 @@
       <c r="D13" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>9.9999900000000004</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>10</v>
       </c>
+      <c r="G13" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>9.9989999995386825E-6</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -11590,14 +11973,22 @@
       <c r="D14" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>10</v>
       </c>
+      <c r="G14" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -11610,14 +12001,22 @@
       <c r="D15" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>10</v>
       </c>
+      <c r="G15" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -11630,14 +12029,22 @@
       <c r="D16" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -11650,14 +12057,22 @@
       <c r="D17" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>10</v>
       </c>
+      <c r="G17" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -11670,14 +12085,22 @@
       <c r="D18" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>10</v>
       </c>
+      <c r="G18" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -11690,11 +12113,19 @@
       <c r="D19" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data2[[#This Row],[Column4]]-data2[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
       </c>
     </row>
   </sheetData>
@@ -11708,10 +12139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A37CE5-A9AA-4115-835D-F728D18A8B65}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11721,7 +12152,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11740,8 +12171,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -11754,14 +12191,22 @@
       <c r="D2" s="1">
         <v>-3.4624978660000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-6.1333500000000001</v>
       </c>
-      <c r="F2" s="1">
-        <v>-5.0179532</v>
+      <c r="F2">
+        <v>-6.6098150999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>2.670852134</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>3.1473172339999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -11774,14 +12219,22 @@
       <c r="D3" s="1">
         <v>2.2416538890000002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-2.8606199999999999</v>
       </c>
-      <c r="F3" s="1">
-        <v>-2.1336786999999999</v>
+      <c r="F3">
+        <v>-3.5322790999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>5.1022738890000001</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>5.7739329890000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -11794,14 +12247,22 @@
       <c r="D4" s="1">
         <v>5.9374546490000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>4.1277999999999997</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.3299323000000001</v>
+      <c r="F4">
+        <v>-0.67923129999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>1.8096546490000005</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>6.6166859489999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -11814,14 +12275,22 @@
       <c r="D5" s="1">
         <v>8.1555694590000005</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>7.6347899999999997</v>
       </c>
-      <c r="F5" s="1">
-        <v>8.7665006999999999</v>
+      <c r="F5">
+        <v>5.5467711</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>0.52077945900000078</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>2.6087983590000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -11834,14 +12303,22 @@
       <c r="D6" s="1">
         <v>9.2784584490000004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>9.2407699999999995</v>
       </c>
-      <c r="F6" s="1">
-        <v>9.9125008999999995</v>
+      <c r="F6">
+        <v>9.6611420999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>3.7688449000000901E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>0.3826836509999989</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -11854,14 +12331,22 @@
       <c r="D7" s="1">
         <v>9.7579211089999998</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>9.7551500000000004</v>
       </c>
-      <c r="F7" s="1">
-        <v>9.9950990999999991</v>
+      <c r="F7">
+        <v>9.9787347999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>2.7711089999993277E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>0.22081369100000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -11874,14 +12359,22 @@
       <c r="D8" s="1">
         <v>9.9305935489999992</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>9.9198500000000003</v>
       </c>
-      <c r="F8" s="1">
-        <v>9.9997731000000005</v>
+      <c r="F8">
+        <v>9.9989225000000008</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>1.0743548999998964E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>6.8328951000001581E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -11894,14 +12387,22 @@
       <c r="D9" s="1">
         <v>9.9830409689999993</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>9.9735600000000009</v>
       </c>
-      <c r="F9" s="1">
-        <v>9.9999909999999996</v>
+      <c r="F9">
+        <v>9.9999541000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>9.4809689999983959E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.6913131000000803E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -11914,14 +12415,22 @@
       <c r="D10" s="1">
         <v>9.9964759890000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>9.9913000000000007</v>
       </c>
-      <c r="F10" s="1">
-        <v>9.9999997</v>
+      <c r="F10">
+        <v>9.9999982999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>5.1759889999996034E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>3.5223109999993341E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -11934,14 +12443,22 @@
       <c r="D11" s="1">
         <v>9.999378299</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>9.9971700000000006</v>
       </c>
-      <c r="F11" s="1">
-        <v>10</v>
+      <c r="F11">
+        <v>9.9999999000000006</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>2.208298999999414E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>6.2160100000063778E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -11954,14 +12471,22 @@
       <c r="D12" s="1">
         <v>9.9999069990000002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>9.9991000000000003</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>8.0699899999991942E-4</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>9.3000999999759415E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -11974,14 +12499,22 @@
       <c r="D13" s="1">
         <v>9.9999882190000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>9.9997199999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>10</v>
       </c>
+      <c r="G13" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>2.6821900000051357E-4</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.1780999999544406E-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -11994,14 +12527,22 @@
       <c r="D14" s="1">
         <v>9.9999987390000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>9.9999099999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>10</v>
       </c>
+      <c r="G14" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>8.8739000000614965E-5</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.2609999995305543E-6</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -12014,14 +12555,22 @@
       <c r="D15" s="1">
         <v>9.9999998889999997</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>9.9999699999999994</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>10</v>
       </c>
+      <c r="G15" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>2.9889000000338228E-5</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.1100000030239698E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -12034,14 +12583,22 @@
       <c r="D16" s="1">
         <v>9.9999999890000009</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>9.9999900000000004</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>9.9890000004876356E-6</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.0999999133787242E-8</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -12054,14 +12611,22 @@
       <c r="D17" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>10</v>
       </c>
+      <c r="G17" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -12074,14 +12639,22 @@
       <c r="D18" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>10</v>
       </c>
+      <c r="G18" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -12094,11 +12667,19 @@
       <c r="D19" s="1">
         <v>9.9999999989999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column5]])</f>
+        <v>1.000000082740371E-9</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data3[[#This Row],[Column4]]-data3[[#This Row],[Column6]])</f>
+        <v>1.000000082740371E-9</v>
       </c>
     </row>
   </sheetData>
@@ -12112,10 +12693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3BD51-BB73-472B-A1E2-F918A3518AB2}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12125,7 +12706,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12144,8 +12725,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -12158,14 +12745,22 @@
       <c r="D2" s="1">
         <v>-5.8574407060000002</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-8.1899899999999999</v>
       </c>
-      <c r="F2" s="1">
-        <v>-6.6904028999999996</v>
+      <c r="F2">
+        <v>-7.7815219999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>2.3325492939999997</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>1.9240812939999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -12178,14 +12773,22 @@
       <c r="D3" s="1">
         <v>-1.746347069</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-6.4021299999999997</v>
       </c>
-      <c r="F3" s="1">
-        <v>-4.5736793000000002</v>
+      <c r="F3">
+        <v>-5.6196390999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>4.6557829309999992</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>3.8732920309999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -12198,14 +12801,22 @@
       <c r="D4" s="1">
         <v>1.773165589</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>-4.6591199999999997</v>
       </c>
-      <c r="F4" s="1">
-        <v>-2.5635881</v>
+      <c r="F4">
+        <v>-3.5549759000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>6.4322855889999992</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>5.3281414890000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -12218,14 +12829,22 @@
       <c r="D5" s="1">
         <v>4.3969123589999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-2.9837199999999999</v>
       </c>
-      <c r="F5" s="1">
-        <v>-0.64990380000000003</v>
+      <c r="F5">
+        <v>-1.5969546999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>7.3806323589999998</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>5.9938670589999994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -12238,14 +12857,22 @@
       <c r="D6" s="1">
         <v>6.3905605789999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>-1.39507</v>
       </c>
-      <c r="F6" s="1">
-        <v>3.6188864000000001</v>
+      <c r="F6">
+        <v>1.4701963</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>7.7856305789999993</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>4.9203642789999993</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -12258,14 +12885,22 @@
       <c r="D7" s="1">
         <v>7.8049082590000003</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1.9560200000000001</v>
       </c>
-      <c r="F7" s="1">
-        <v>8.3259167000000005</v>
+      <c r="F7">
+        <v>6.5445263999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>5.8488882590000006</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>1.2603818590000007</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -12278,14 +12913,22 @@
       <c r="D8" s="1">
         <v>8.7417030590000007</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>4.6411100000000003</v>
       </c>
-      <c r="F8" s="1">
-        <v>9.6839224000000002</v>
+      <c r="F8">
+        <v>9.2507221000000008</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>4.1005930590000004</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>0.50901904100000017</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -12298,14 +12941,22 @@
       <c r="D9" s="1">
         <v>9.3210155889999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>7.3193799999999998</v>
       </c>
-      <c r="F9" s="1">
-        <v>9.9511745999999999</v>
+      <c r="F9">
+        <v>9.8730156999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>2.0016355890000002</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>0.5520001109999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -12318,14 +12969,22 @@
       <c r="D10" s="1">
         <v>9.6554884990000005</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>8.6928800000000006</v>
       </c>
-      <c r="F10" s="1">
-        <v>9.9936117000000007</v>
+      <c r="F10">
+        <v>9.9819869000000008</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>0.9626084989999999</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>0.32649840100000027</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -12338,14 +12997,22 @@
       <c r="D11" s="1">
         <v>9.8357852690000005</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>9.3814499999999992</v>
       </c>
-      <c r="F11" s="1">
-        <v>9.9992812000000004</v>
+      <c r="F11">
+        <v>9.9978183000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>0.45433526900000132</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>0.16203303099999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -12358,14 +13025,22 @@
       <c r="D12" s="1">
         <v>9.9265240989999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>9.7176500000000008</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.9999293999999992</v>
+      <c r="F12">
+        <v>9.9997711000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>0.20887409899999909</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>7.3247001000000367E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -12378,14 +13053,22 @@
       <c r="D13" s="1">
         <v>9.9691600489999992</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>9.8759099999999993</v>
       </c>
-      <c r="F13" s="1">
-        <v>9.9999938999999998</v>
+      <c r="F13">
+        <v>9.9999789000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>9.325004899999989E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>3.0818851000001146E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -12398,14 +13081,22 @@
       <c r="D14" s="1">
         <v>9.9878640690000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>9.9474199999999993</v>
       </c>
-      <c r="F14" s="1">
-        <v>9.9999994999999995</v>
+      <c r="F14">
+        <v>9.9999982999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>4.0444069000001193E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>1.2134230999999218E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -12418,14 +13109,22 @@
       <c r="D15" s="1">
         <v>9.995524799</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>9.9784600000000001</v>
       </c>
-      <c r="F15" s="1">
-        <v>10</v>
+      <c r="F15">
+        <v>9.9999999000000006</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>1.7064798999999908E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>4.475101000000592E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -12438,14 +13137,22 @@
       <c r="D16" s="1">
         <v>9.9984542090000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>9.99146</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>6.99420900000014E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>1.545790999999852E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -12458,14 +13165,22 @@
       <c r="D17" s="1">
         <v>9.9995000390000008</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>9.9967500000000005</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>10</v>
       </c>
+      <c r="G17" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>2.7500390000003705E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>4.9996099999916055E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -12478,14 +13193,22 @@
       <c r="D18" s="1">
         <v>9.9998486389999997</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>9.99892</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>10</v>
       </c>
+      <c r="G18" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>9.286389999996203E-4</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>1.5136100000034958E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -12498,11 +13221,19 @@
       <c r="D19" s="1">
         <v>9.9999571189999994</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column5]])</f>
+        <v>4.2881000000605241E-5</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data4[[#This Row],[Column4]]-data4[[#This Row],[Column6]])</f>
+        <v>4.2881000000605241E-5</v>
       </c>
     </row>
   </sheetData>
@@ -12516,10 +13247,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84BE9A0-DCAB-45A9-BB32-6D997936A4BB}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12529,7 +13260,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12548,8 +13279,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -12562,14 +13299,22 @@
       <c r="D2" s="1">
         <v>-7.0689066670000003</v>
       </c>
-      <c r="E2" s="1">
-        <v>-8.4238599999999995</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-7.0588775000000004</v>
+      <c r="E2">
+        <v>-8.4372399999999992</v>
+      </c>
+      <c r="F2">
+        <v>-8.0399022000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>1.3683333329999989</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.97099553299999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -12582,14 +13327,22 @@
       <c r="D3" s="1">
         <v>-4.148969954</v>
       </c>
-      <c r="E3" s="1">
-        <v>-6.8501899999999996</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-5.0951171000000004</v>
+      <c r="E3">
+        <v>-6.8770499999999997</v>
+      </c>
+      <c r="F3">
+        <v>-6.0780759</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>2.7280800459999996</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>1.929105946</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -12602,14 +13355,22 @@
       <c r="D4" s="1">
         <v>-1.251219243</v>
       </c>
-      <c r="E4" s="1">
-        <v>-5.2814899999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-3.1264755000000002</v>
+      <c r="E4">
+        <v>-5.3220200000000002</v>
+      </c>
+      <c r="F4">
+        <v>-4.1125505999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>4.0708007570000007</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>2.8613313569999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -12622,14 +13383,22 @@
       <c r="D5" s="1">
         <v>1.2604322489999999</v>
       </c>
-      <c r="E5" s="1">
-        <v>-3.72031</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1.1504544000000001</v>
+      <c r="E5">
+        <v>-3.7747799999999998</v>
+      </c>
+      <c r="F5">
+        <v>-2.1409810999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>5.0352122489999998</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>3.4014133489999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -12642,14 +13411,22 @@
       <c r="D6" s="1">
         <v>3.2569697889999998</v>
       </c>
-      <c r="E6" s="1">
-        <v>-2.16926</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.4201109000000001</v>
+      <c r="E6">
+        <v>-2.2379899999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.1607036</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>5.4949597889999993</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>3.417673389</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -12662,14 +13439,22 @@
       <c r="D7" s="1">
         <v>4.9377737890000004</v>
       </c>
-      <c r="E7" s="1">
-        <v>-0.63107999999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.9307023000000001</v>
+      <c r="E7">
+        <v>-0.71435000000000004</v>
+      </c>
+      <c r="F7">
+        <v>2.1767365000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>5.6521237890000009</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>2.7610372890000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -12682,14 +13467,22 @@
       <c r="D8" s="1">
         <v>6.3048871489999998</v>
       </c>
-      <c r="E8" s="1">
-        <v>1.82999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.7974119000000002</v>
+      <c r="E8">
+        <v>1.66543</v>
+      </c>
+      <c r="F8">
+        <v>5.5119103999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>4.6394571490000001</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.79297674900000015</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -12702,14 +13495,22 @@
       <c r="D9" s="1">
         <v>7.3792223689999998</v>
       </c>
-      <c r="E9" s="1">
-        <v>2.76024</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8.5834645999999992</v>
+      <c r="E9">
+        <v>2.56535</v>
+      </c>
+      <c r="F9">
+        <v>7.8419767</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>4.8138723690000003</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.46275433100000019</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -12722,14 +13523,22 @@
       <c r="D10" s="1">
         <v>8.1949081590000006</v>
       </c>
-      <c r="E10" s="1">
-        <v>4.69855</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9.4720578</v>
+      <c r="E10">
+        <v>4.4925600000000001</v>
+      </c>
+      <c r="F10">
+        <v>9.1300194000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>3.7023481590000005</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.93511124099999954</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -12742,14 +13551,22 @@
       <c r="D11" s="1">
         <v>8.7932560090000003</v>
       </c>
-      <c r="E11" s="1">
-        <v>6.27034</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9.8321629999999995</v>
+      <c r="E11">
+        <v>6.0676600000000001</v>
+      </c>
+      <c r="F11">
+        <v>9.7030785000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>2.7255960090000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.9098224909999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -12762,14 +13579,22 @@
       <c r="D12" s="1">
         <v>9.2173208689999999</v>
       </c>
-      <c r="E12" s="1">
-        <v>7.4805400000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9.9537949999999995</v>
+      <c r="E12">
+        <v>7.2965099999999996</v>
+      </c>
+      <c r="F12">
+        <v>9.9129526000000006</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>1.9208108690000003</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.69563173100000064</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -12782,14 +13607,22 @@
       <c r="D13" s="1">
         <v>9.5076953789999994</v>
       </c>
-      <c r="E13" s="1">
-        <v>8.3646700000000003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>9.9888183999999995</v>
+      <c r="E13">
+        <v>8.21035</v>
+      </c>
+      <c r="F13">
+        <v>9.9777342999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>1.2973453789999994</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.47003892100000044</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -12802,14 +13635,22 @@
       <c r="D14" s="1">
         <v>9.6997975590000003</v>
       </c>
-      <c r="E14" s="1">
-        <v>8.9790200000000002</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9.9975897000000007</v>
+      <c r="E14">
+        <v>8.8589199999999995</v>
+      </c>
+      <c r="F14">
+        <v>9.9949586999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>0.84087755900000083</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.29516114099999946</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -12822,14 +13663,22 @@
       <c r="D15" s="1">
         <v>9.8225849190000005</v>
       </c>
-      <c r="E15" s="1">
-        <v>9.3869600000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9.9995320999999997</v>
+      <c r="E15">
+        <v>9.2999299999999998</v>
+      </c>
+      <c r="F15">
+        <v>9.9989773999999993</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>0.52265491900000072</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.17639248099999882</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -12842,14 +13691,22 @@
       <c r="D16" s="1">
         <v>9.8984116689999997</v>
       </c>
-      <c r="E16" s="1">
-        <v>9.6480999999999995</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9.9999175000000005</v>
+      <c r="E16">
+        <v>9.5896699999999999</v>
+      </c>
+      <c r="F16">
+        <v>9.9998123000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>0.30874166899999977</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>0.10140063100000063</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -12862,14 +13719,22 @@
       <c r="D17" s="1">
         <v>9.9436533489999999</v>
       </c>
-      <c r="E17" s="1">
-        <v>9.8124500000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9.9999866999999991</v>
+      <c r="E17">
+        <v>9.7772699999999997</v>
+      </c>
+      <c r="F17">
+        <v>9.9999686000000008</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>0.16638334900000018</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>5.6315251000000899E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -12882,14 +13747,22 @@
       <c r="D18" s="1">
         <v>9.9697330290000004</v>
       </c>
-      <c r="E18" s="1">
-        <v>9.9194300000000002</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9.9999982999999997</v>
+      <c r="E18">
+        <v>9.90306</v>
+      </c>
+      <c r="F18">
+        <v>9.9999953000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>6.6673029000000383E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>3.0262270999999785E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -12902,11 +13775,19 @@
       <c r="D19" s="1">
         <v>9.984257929</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column5]])</f>
+        <v>1.5742071000000024E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data5[[#This Row],[Column4]]-data5[[#This Row],[Column6]])</f>
+        <v>1.5742071000000024E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12920,10 +13801,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1572DA71-71A1-4152-B7EA-ED977BB0153F}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12933,7 +13814,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12952,8 +13833,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -12969,11 +13856,19 @@
       <c r="E2" s="1">
         <v>-8.56053</v>
       </c>
-      <c r="F2" s="1">
-        <v>-7.0161901000000002</v>
+      <c r="F2">
+        <v>-8.0110471000000008</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>0.95426472399999973</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.40478182400000051</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -12989,11 +13884,19 @@
       <c r="E3" s="1">
         <v>-7.1238299999999999</v>
       </c>
-      <c r="F3" s="1">
-        <v>-5.024985</v>
+      <c r="F3">
+        <v>-6.0208826000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>1.9052207640000001</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.80227336400000038</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -13009,11 +13912,19 @@
       <c r="E4" s="1">
         <v>-5.6929100000000004</v>
       </c>
-      <c r="F4" s="1">
-        <v>-3.0309077000000002</v>
+      <c r="F4">
+        <v>-4.0283667000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>2.8498457020000005</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.1853024020000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -13029,11 +13940,19 @@
       <c r="E5" s="1">
         <v>-4.2713000000000001</v>
       </c>
-      <c r="F5" s="1">
-        <v>-1.0330546</v>
+      <c r="F5">
+        <v>-2.0325011000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>3.7857290830000001</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.5469301830000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -13049,11 +13968,19 @@
       <c r="E6" s="1">
         <v>-2.8631099999999998</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.1967635999999999</v>
+      <c r="F6">
+        <v>-3.2492199999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>4.2998234589999997</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.469205659</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -13069,11 +13996,19 @@
       <c r="E7" s="1">
         <v>-1.47292</v>
       </c>
-      <c r="F7" s="1">
-        <v>2.9881641999999999</v>
+      <c r="F7">
+        <v>1.6329596</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>4.5423779489999996</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.4364983489999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -13089,11 +14024,19 @@
       <c r="E8" s="1">
         <v>-0.10487</v>
       </c>
-      <c r="F8" s="1">
-        <v>5.3954655000000002</v>
+      <c r="F8">
+        <v>4.2522072</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>4.5968288089999998</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.23975160899999981</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -13109,11 +14052,19 @@
       <c r="E9" s="1">
         <v>1.5339799999999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>7.2496518999999999</v>
+      <c r="F9">
+        <v>6.3978266000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>4.1691602590000008</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.69468634099999971</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -13129,11 +14080,19 @@
       <c r="E10" s="1">
         <v>2.0866600000000002</v>
       </c>
-      <c r="F10" s="1">
-        <v>8.5116788000000003</v>
+      <c r="F10">
+        <v>7.9513305000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>4.6243124990000002</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.2403580009999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -13149,11 +14108,19 @@
       <c r="E11" s="1">
         <v>3.6963599999999999</v>
       </c>
-      <c r="F11" s="1">
-        <v>9.2716106000000007</v>
+      <c r="F11">
+        <v>8.9456176000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>3.8341892789999998</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.4150683210000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -13169,11 +14136,19 @@
       <c r="E12" s="1">
         <v>5.1093000000000002</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.6775544999999994</v>
+      <c r="F12">
+        <v>9.5092891999999996</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>3.072597719</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.3273914809999994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -13189,11 +14164,19 @@
       <c r="E13" s="1">
         <v>6.3105399999999996</v>
       </c>
-      <c r="F13" s="1">
-        <v>9.8706767000000006</v>
+      <c r="F13">
+        <v>9.7932898999999995</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>2.3772516190000008</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>1.1054982809999991</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -13209,11 +14192,19 @@
       <c r="E14" s="1">
         <v>7.2986800000000001</v>
       </c>
-      <c r="F14" s="1">
-        <v>9.9528815999999996</v>
+      <c r="F14">
+        <v>9.9210121000000004</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>1.7731086290000002</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.84922347100000017</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -13229,11 +14220,19 @@
       <c r="E15" s="1">
         <v>8.0904000000000007</v>
       </c>
-      <c r="F15" s="1">
-        <v>9.9843519000000001</v>
+      <c r="F15">
+        <v>9.9725362999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>1.2662401589999988</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.61589614100000034</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -13249,11 +14248,19 @@
       <c r="E16" s="1">
         <v>8.7163799999999991</v>
       </c>
-      <c r="F16" s="1">
-        <v>9.9952480000000001</v>
+      <c r="F16">
+        <v>9.9912808000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>0.84676562900000008</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.42813517100000098</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -13269,11 +14276,19 @@
       <c r="E17" s="1">
         <v>9.2152600000000007</v>
       </c>
-      <c r="F17" s="1">
-        <v>9.9986902000000004</v>
+      <c r="F17">
+        <v>9.9974691999999994</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>0.49419320899999875</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.28801599099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -13289,11 +14304,19 @@
       <c r="E18" s="1">
         <v>9.6289200000000008</v>
       </c>
-      <c r="F18" s="1">
-        <v>9.9997395999999998</v>
+      <c r="F18">
+        <v>9.9993581999999996</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>0.18183669899999977</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.18860150099999906</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -13309,8 +14332,16 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column5]])</f>
+        <v>0.12069381100000065</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data6[[#This Row],[Column4]]-data6[[#This Row],[Column6]])</f>
+        <v>0.12069381100000065</v>
       </c>
     </row>
   </sheetData>
@@ -13324,10 +14355,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A255C7-34C1-4563-A925-D448EF2B3855}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13337,7 +14368,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -13356,8 +14387,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
@@ -13373,11 +14410,19 @@
       <c r="E2" s="1">
         <v>-8.6585199999999993</v>
       </c>
-      <c r="F2" s="1">
-        <v>-6.9983411999999996</v>
+      <c r="F2">
+        <v>-7.9989740999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>0.74221268399999918</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>8.2666783999999716E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -13393,11 +14438,19 @@
       <c r="E3" s="1">
         <v>-7.3177199999999996</v>
       </c>
-      <c r="F3" s="1">
-        <v>-4.9966112000000003</v>
+      <c r="F3">
+        <v>-5.9975676</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>1.4810953209999997</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.16094292100000018</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3500000000000001E-3</v>
       </c>
@@ -13413,11 +14466,19 @@
       <c r="E4" s="1">
         <v>-5.9782900000000003</v>
       </c>
-      <c r="F4" s="1">
-        <v>-2.9940053</v>
+      <c r="F4">
+        <v>-3.9954345999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>2.2133510040000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.23049560399999969</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.8E-3</v>
       </c>
@@ -13433,11 +14494,19 @@
       <c r="E5" s="1">
         <v>-4.64086</v>
       </c>
-      <c r="F5" s="1">
-        <v>-0.99029089999999997</v>
+      <c r="F5">
+        <v>-1.9922972000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>2.935668873</v>
+      </c>
+      <c r="H5" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.28710607300000013</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
@@ -13453,11 +14522,19 @@
       <c r="E6" s="1">
         <v>-3.30606</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.0146533</v>
+      <c r="F6">
+        <v>1.2024999999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.577346226</v>
+      </c>
+      <c r="H6" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.25926122600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -13473,11 +14550,19 @@
       <c r="E7" s="1">
         <v>-1.9744600000000001</v>
       </c>
-      <c r="F7" s="1">
-        <v>2.4715685000000001</v>
+      <c r="F7">
+        <v>1.3154604999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.7919387590000002</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.50201825900000019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.15E-3</v>
       </c>
@@ -13493,11 +14578,19 @@
       <c r="E8" s="1">
         <v>-0.64658000000000004</v>
       </c>
-      <c r="F8" s="1">
-        <v>4.5912598999999998</v>
+      <c r="F8">
+        <v>3.5696091999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.8568617390000002</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.3593274609999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -13513,11 +14606,19 @@
       <c r="E9" s="1">
         <v>0.67713000000000001</v>
       </c>
-      <c r="F9" s="1">
-        <v>6.3529739999999997</v>
+      <c r="F9">
+        <v>5.5222430999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.766124509</v>
+      </c>
+      <c r="H9" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.0789885909999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.0499999999999998E-3</v>
       </c>
@@ -13533,11 +14634,19 @@
       <c r="E10" s="1">
         <v>1.4208099999999999</v>
       </c>
-      <c r="F10" s="1">
-        <v>7.6995765</v>
+      <c r="F10">
+        <v>7.0787605999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>4.0950869090000008</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.5628636909999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -13553,11 +14662,19 @@
       <c r="E11" s="1">
         <v>1.82559</v>
       </c>
-      <c r="F11" s="1">
-        <v>8.6457484000000004</v>
+      <c r="F11">
+        <v>8.2194743999999993</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>4.6073592290000001</v>
+      </c>
+      <c r="H11" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.7865251709999992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.9500000000000004E-3</v>
       </c>
@@ -13573,11 +14690,19 @@
       <c r="E12" s="1">
         <v>3.3336800000000002</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.2570070999999992</v>
+      <c r="F12">
+        <v>8.9879688000000009</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.8697661989999999</v>
+      </c>
+      <c r="H12" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.7845226010000008</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -13593,11 +14718,19 @@
       <c r="E13" s="1">
         <v>4.7050000000000001</v>
       </c>
-      <c r="F13" s="1">
-        <v>9.6203740999999994</v>
+      <c r="F13">
+        <v>9.4641506</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>3.1346341290000002</v>
+      </c>
+      <c r="H13" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.6245164709999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5.8500000000000002E-3</v>
       </c>
@@ -13613,11 +14746,19 @@
       <c r="E14" s="1">
         <v>5.9153700000000002</v>
       </c>
-      <c r="F14" s="1">
-        <v>9.8193819999999992</v>
+      <c r="F14">
+        <v>9.7358046999999992</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>2.4404874090000002</v>
+      </c>
+      <c r="H14" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.3799472909999988</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.3E-3</v>
       </c>
@@ -13633,11 +14774,19 @@
       <c r="E15" s="1">
         <v>6.9619</v>
       </c>
-      <c r="F15" s="1">
-        <v>9.9199731</v>
+      <c r="F15">
+        <v>9.8786968000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>1.8056067490000007</v>
+      </c>
+      <c r="H15" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>1.1111900509999995</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6.7499999999999999E-3</v>
       </c>
@@ -13653,11 +14802,19 @@
       <c r="E16" s="1">
         <v>7.8608700000000002</v>
       </c>
-      <c r="F16" s="1">
-        <v>9.9670530999999993</v>
+      <c r="F16">
+        <v>9.9481538999999994</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>1.2292297090000002</v>
+      </c>
+      <c r="H16" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.85805419099999902</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -13673,11 +14830,19 @@
       <c r="E17" s="1">
         <v>8.6418099999999995</v>
       </c>
-      <c r="F17" s="1">
-        <v>9.9877239000000007</v>
+      <c r="F17">
+        <v>9.9795385999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>0.6967288490000012</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.64099975099999895</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.6499999999999997E-3</v>
       </c>
@@ -13693,11 +14858,19 @@
       <c r="E18" s="1">
         <v>9.3414900000000003</v>
       </c>
-      <c r="F18" s="1">
-        <v>9.9969497999999994</v>
+      <c r="F18">
+        <v>9.9931494999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>0.18507696899999893</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.46658253100000024</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
@@ -13713,8 +14886,16 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column5]])</f>
+        <v>0.33358279099999955</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ABS(data7[[#This Row],[Column4]]-data7[[#This Row],[Column6]])</f>
+        <v>0.33358279099999955</v>
       </c>
     </row>
   </sheetData>
